--- a/data/trans_orig/P36BPD01_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>420258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>399513</v>
+        <v>399704</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>436368</v>
+        <v>436818</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8498908198362887</v>
+        <v>0.849890819836289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8079375551798115</v>
+        <v>0.8083238354273355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8824704464944687</v>
+        <v>0.8833799697295981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>773</v>
@@ -762,19 +762,19 @@
         <v>550837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>533073</v>
+        <v>533152</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>564528</v>
+        <v>565111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8833462633755065</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8548592623583501</v>
+        <v>0.854986297468711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9053015876023065</v>
+        <v>0.9062368034706286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1162</v>
@@ -783,19 +783,19 @@
         <v>971096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>947704</v>
+        <v>945228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>994447</v>
+        <v>993449</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8685499679146634</v>
+        <v>0.8685499679146633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8476275466834413</v>
+        <v>0.845413485375751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8894345635806524</v>
+        <v>0.8885426804921259</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>74227</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58117</v>
+        <v>57667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94972</v>
+        <v>94781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1501091801637111</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1175295535055315</v>
+        <v>0.116620030270402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1920624448201888</v>
+        <v>0.1916761645726648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -833,19 +833,19 @@
         <v>72743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59052</v>
+        <v>58469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90507</v>
+        <v>90428</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1166537366244934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0946984123976935</v>
+        <v>0.09376319652937165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1451407376416498</v>
+        <v>0.1450137025312893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -854,19 +854,19 @@
         <v>146970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123619</v>
+        <v>124617</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>170362</v>
+        <v>172838</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1314500320853368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1105654364193484</v>
+        <v>0.1114573195078741</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1523724533165589</v>
+        <v>0.1545865146242497</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>888610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>861682</v>
+        <v>864035</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>906194</v>
+        <v>906108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9255032999798106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8974578278678099</v>
+        <v>0.8999079767055558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9438176386628037</v>
+        <v>0.9437275762317328</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1508</v>
@@ -979,19 +979,19 @@
         <v>1039004</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1023954</v>
+        <v>1022331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1052871</v>
+        <v>1053547</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9367995335331493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9232296728927121</v>
+        <v>0.9217662776529622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9493017464095846</v>
+        <v>0.9499114007601418</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2366</v>
@@ -1000,19 +1000,19 @@
         <v>1927613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1900938</v>
+        <v>1898124</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1949857</v>
+        <v>1949068</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9315580211372537</v>
+        <v>0.9315580211372538</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.918666829524985</v>
+        <v>0.9173067231207405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9423077503572147</v>
+        <v>0.9419261524385786</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>71527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53943</v>
+        <v>54029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>98455</v>
+        <v>96102</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07449670002018942</v>
+        <v>0.07449670002018943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0561823613371964</v>
+        <v>0.05627242376826726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1025421721321898</v>
+        <v>0.1000920232944438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -1050,19 +1050,19 @@
         <v>70096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56229</v>
+        <v>55553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85146</v>
+        <v>86769</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06320046646685079</v>
+        <v>0.06320046646685078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05069825359041599</v>
+        <v>0.05008859923985799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07677032710728965</v>
+        <v>0.07823372234703807</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1071,19 +1071,19 @@
         <v>141623</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>119379</v>
+        <v>120168</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>168298</v>
+        <v>171112</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06844197886274633</v>
+        <v>0.06844197886274636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05769224964278521</v>
+        <v>0.05807384756142243</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0813331704750155</v>
+        <v>0.08269327687925963</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>1010603</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>997051</v>
+        <v>997053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1020535</v>
+        <v>1020861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9709967098003468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9579765748036388</v>
+        <v>0.9579780541067107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9805399574161819</v>
+        <v>0.9808526766247104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1476</v>
@@ -1196,19 +1196,19 @@
         <v>1017582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1006118</v>
+        <v>1005422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1026394</v>
+        <v>1026060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.972010937710476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9610604269679435</v>
+        <v>0.9603956660182096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9804287601846444</v>
+        <v>0.9801091273493721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2471</v>
@@ -1217,19 +1217,19 @@
         <v>2028185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2009335</v>
+        <v>2009412</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2041643</v>
+        <v>2042207</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9715053040972322</v>
+        <v>0.9715053040972323</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9624760439059056</v>
+        <v>0.962512937458109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9779516997924074</v>
+        <v>0.978221764459559</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>30186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20254</v>
+        <v>19928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43738</v>
+        <v>43736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02900329019965308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01946004258381804</v>
+        <v>0.0191473233752897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0420234251963612</v>
+        <v>0.04202194589328939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1267,19 +1267,19 @@
         <v>29301</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20489</v>
+        <v>20823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40765</v>
+        <v>41461</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.027989062289524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01957123981535525</v>
+        <v>0.0198908726506282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03893957303205446</v>
+        <v>0.03960433398179082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -1288,19 +1288,19 @@
         <v>59488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46030</v>
+        <v>45466</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78338</v>
+        <v>78261</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02849469590276774</v>
+        <v>0.02849469590276775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0220483002075927</v>
+        <v>0.02177823554044098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03752395609409449</v>
+        <v>0.03748706254189077</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>934955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>918565</v>
+        <v>919425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>946401</v>
+        <v>946107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9642830667431277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9473787621578971</v>
+        <v>0.9482656011005197</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9760874385653191</v>
+        <v>0.9757847119400251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1278</v>
@@ -1413,19 +1413,19 @@
         <v>877679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>865899</v>
+        <v>866549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>886320</v>
+        <v>886586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9663399749904614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9533701801403444</v>
+        <v>0.9540848976454931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9758533296557629</v>
+        <v>0.9761468911667985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2190</v>
@@ -1434,19 +1434,19 @@
         <v>1812635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1794291</v>
+        <v>1793453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1826597</v>
+        <v>1827854</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9652779286320282</v>
+        <v>0.9652779286320283</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.955509263829926</v>
+        <v>0.955063013656101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9727133479972295</v>
+        <v>0.9733828216527417</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>34631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23185</v>
+        <v>23479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51021</v>
+        <v>50161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03571693325687241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02391256143468098</v>
+        <v>0.02421528805997493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05262123784210316</v>
+        <v>0.05173439889948018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -1484,19 +1484,19 @@
         <v>30572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21931</v>
+        <v>21665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42352</v>
+        <v>41702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0336600250095386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.024146670344237</v>
+        <v>0.02385310883320158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04662981985965572</v>
+        <v>0.04591510235450695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -1505,19 +1505,19 @@
         <v>65202</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51240</v>
+        <v>49983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83546</v>
+        <v>84384</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03472207136797176</v>
+        <v>0.03472207136797175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0272866520027705</v>
+        <v>0.02661717834725822</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04449073617007435</v>
+        <v>0.04493698634389893</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>3254427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3220795</v>
+        <v>3218944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3288713</v>
+        <v>3284732</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9392291683123377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9295228510904996</v>
+        <v>0.9289887775696607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9491241664161462</v>
+        <v>0.9479752452535254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5035</v>
@@ -1630,19 +1630,19 @@
         <v>3485102</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3456057</v>
+        <v>3457757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3511502</v>
+        <v>3509993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9450320407530398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9371559870521542</v>
+        <v>0.9376170344820447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.952190710924275</v>
+        <v>0.9517814464341822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8189</v>
@@ -1651,19 +1651,19 @@
         <v>6739530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6695196</v>
+        <v>6696996</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6781221</v>
+        <v>6778681</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9422209868978352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9360228634329741</v>
+        <v>0.9362746058127539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9480496606845462</v>
+        <v>0.9476945363948258</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>210571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176285</v>
+        <v>180266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244203</v>
+        <v>246054</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06077083168766232</v>
+        <v>0.06077083168766233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05087583358385368</v>
+        <v>0.05202475474647458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07047714890950037</v>
+        <v>0.07101122243033925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>263</v>
@@ -1701,19 +1701,19 @@
         <v>202712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176312</v>
+        <v>177821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>231757</v>
+        <v>230057</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05496795924696016</v>
+        <v>0.05496795924696018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04780928907572506</v>
+        <v>0.0482185535658179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.062844012947846</v>
+        <v>0.06238296551795545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -1722,19 +1722,19 @@
         <v>413282</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371591</v>
+        <v>374131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>457616</v>
+        <v>455816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05777901310216479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05195033931545365</v>
+        <v>0.05230546360517421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06397713656702583</v>
+        <v>0.06372539418724604</v>
       </c>
     </row>
     <row r="18">
